--- a/Data Structures and Algorithms/FA20-DSA-ResultSheet (1).xlsx
+++ b/Data Structures and Algorithms/FA20-DSA-ResultSheet (1).xlsx
@@ -1,19 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MF\Desktop\3rd-semsester-University\Data Structures and Algorithms\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="DSA-AM" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="DSA-BM" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="IDS-AM" sheetId="3" r:id="rId6"/>
+    <sheet name="DSA-AM" sheetId="1" r:id="rId1"/>
+    <sheet name="DSA-BM" sheetId="2" r:id="rId2"/>
+    <sheet name="IDS-AM" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="168">
   <si>
     <t>Sr no.</t>
   </si>
@@ -514,53 +522,61 @@
   </si>
   <si>
     <t>imaginary numbers</t>
+  </si>
+  <si>
+    <t>ta</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-    </font>
-    <font>
-      <b/>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="9.0"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="7.0"/>
+      <sz val="7"/>
       <color theme="1"/>
       <name val="Verdana"/>
     </font>
     <font>
-      <sz val="7.0"/>
+      <sz val="7"/>
       <color theme="1"/>
       <name val="Verdana"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -570,7 +586,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -591,8 +607,14 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
-    <border/>
+  <borders count="3">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -606,104 +628,114 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+  <cellXfs count="25">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -893,28 +925,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="19.43"/>
-    <col customWidth="1" min="3" max="3" width="35.71"/>
-    <col customWidth="1" min="7" max="7" width="27.71"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="35.7109375" customWidth="1"/>
+    <col min="7" max="7" width="27.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
@@ -954,10 +989,13 @@
       <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2">
+      <c r="O1" s="24" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>14</v>
@@ -966,43 +1004,43 @@
         <v>15</v>
       </c>
       <c r="D2" s="2">
-        <v>78.26086957</v>
+        <v>78.260869569999997</v>
       </c>
       <c r="E2" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F2" s="4">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G2" s="2">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="H2" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I2" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="J2" s="2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="K2" s="2">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="L2" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="M2" s="5">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="N2" s="6">
-        <f t="shared" ref="N2:N37" si="1">E2+(SUM(F2:J2)/100*(15))+(SUM(K2,L2)/40*10)+(M2/25*(20))</f>
+        <f t="shared" ref="N2:N37" si="0">E2+(SUM(F2:J2)/100*(15))+(SUM(K2,L2)/40*10)+(M2/25*(20))</f>
         <v>37.15</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>16</v>
@@ -1011,13 +1049,13 @@
         <v>17</v>
       </c>
       <c r="D3" s="2">
-        <v>73.91304348</v>
+        <v>73.913043479999999</v>
       </c>
       <c r="E3" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F3" s="4">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>18</v>
@@ -1026,28 +1064,28 @@
         <v>18</v>
       </c>
       <c r="I3" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="J3" s="2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="K3" s="2">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="L3" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="M3" s="5">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="N3" s="6">
-        <f t="shared" si="1"/>
-        <v>24.6</v>
-      </c>
-    </row>
-    <row r="4">
+        <f t="shared" si="0"/>
+        <v>24.599999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>19</v>
@@ -1056,43 +1094,43 @@
         <v>20</v>
       </c>
       <c r="D4" s="2">
-        <v>82.60869565</v>
+        <v>82.608695650000001</v>
       </c>
       <c r="E4" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F4" s="4">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="G4" s="2">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="H4" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I4" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="J4" s="2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="L4" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="M4" s="5">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="N4" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>27.95</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>22</v>
@@ -1101,16 +1139,16 @@
         <v>23</v>
       </c>
       <c r="D5" s="2">
-        <v>47.82608696</v>
+        <v>47.826086959999998</v>
       </c>
       <c r="E5" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F5" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G5" s="2">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>18</v>
@@ -1119,25 +1157,25 @@
         <v>18</v>
       </c>
       <c r="J5" s="2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="K5" s="2">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="M5" s="5">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="N5" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>23.25</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>24</v>
@@ -1146,43 +1184,43 @@
         <v>25</v>
       </c>
       <c r="D6" s="2">
-        <v>95.65217391</v>
+        <v>95.652173910000002</v>
       </c>
       <c r="E6" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F6" s="4">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G6" s="2">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="H6" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I6" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="J6" s="2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>21</v>
       </c>
       <c r="L6" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="M6" s="5">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="N6" s="6">
-        <f t="shared" si="1"/>
-        <v>38.55</v>
-      </c>
-    </row>
-    <row r="7">
+        <f t="shared" si="0"/>
+        <v>38.549999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>26</v>
@@ -1191,43 +1229,43 @@
         <v>27</v>
       </c>
       <c r="D7" s="2">
-        <v>95.65217391</v>
+        <v>95.652173910000002</v>
       </c>
       <c r="E7" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F7" s="4">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="G7" s="2">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="H7" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I7" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="J7" s="2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="K7" s="2">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="L7" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="M7" s="5">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="N7" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>37.65</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>28</v>
@@ -1236,43 +1274,43 @@
         <v>29</v>
       </c>
       <c r="D8" s="2">
-        <v>69.56521739</v>
+        <v>69.565217390000001</v>
       </c>
       <c r="E8" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F8" s="4">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G8" s="2">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="H8" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I8" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="J8" s="2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="K8" s="2">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="L8" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="M8" s="5">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="N8" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>39.35</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>30</v>
@@ -1281,43 +1319,43 @@
         <v>31</v>
       </c>
       <c r="D9" s="2">
-        <v>91.30434783</v>
+        <v>91.304347829999998</v>
       </c>
       <c r="E9" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F9" s="4">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="G9" s="2">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="H9" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="I9" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="J9" s="2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="K9" s="2">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="L9" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="M9" s="5">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="N9" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>34.85</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>32</v>
@@ -1326,43 +1364,43 @@
         <v>33</v>
       </c>
       <c r="D10" s="2">
-        <v>69.56521739</v>
+        <v>69.565217390000001</v>
       </c>
       <c r="E10" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F10" s="4">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="G10" s="2">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="H10" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="I10" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="J10" s="2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="K10" s="2">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="L10" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M10" s="5">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="N10" s="6">
-        <f t="shared" si="1"/>
-        <v>25.95</v>
-      </c>
-    </row>
-    <row r="11">
+        <f t="shared" si="0"/>
+        <v>25.950000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>34</v>
@@ -1371,43 +1409,43 @@
         <v>35</v>
       </c>
       <c r="D11" s="2">
-        <v>82.60869565</v>
+        <v>82.608695650000001</v>
       </c>
       <c r="E11" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F11" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="G11" s="2">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="H11" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I11" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="J11" s="2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="K11" s="2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="M11" s="5">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="N11" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>26.1</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>36</v>
@@ -1416,43 +1454,43 @@
         <v>37</v>
       </c>
       <c r="D12" s="2">
-        <v>95.65217391</v>
+        <v>95.652173910000002</v>
       </c>
       <c r="E12" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F12" s="4">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="G12" s="2">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="H12" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="I12" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="J12" s="2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="K12" s="2">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="L12" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="M12" s="5">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="N12" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>38.9</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>38</v>
@@ -1461,43 +1499,43 @@
         <v>39</v>
       </c>
       <c r="D13" s="2">
-        <v>95.65217391</v>
+        <v>95.652173910000002</v>
       </c>
       <c r="E13" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F13" s="4">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="G13" s="2">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="H13" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="I13" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="J13" s="2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="K13" s="2">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="L13" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="M13" s="5">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="N13" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>43.15</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>40</v>
@@ -1506,43 +1544,43 @@
         <v>41</v>
       </c>
       <c r="D14" s="2">
-        <v>95.65217391</v>
+        <v>95.652173910000002</v>
       </c>
       <c r="E14" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F14" s="4">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="G14" s="2">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="H14" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="J14" s="2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="K14" s="2">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="L14" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="M14" s="5">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="N14" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>34.75</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>42</v>
@@ -1551,43 +1589,43 @@
         <v>43</v>
       </c>
       <c r="D15" s="2">
-        <v>95.65217391</v>
+        <v>95.652173910000002</v>
       </c>
       <c r="E15" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F15" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G15" s="2">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="H15" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>18</v>
       </c>
       <c r="J15" s="2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="K15" s="2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="L15" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="M15" s="5">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="N15" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>29.45</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>44</v>
@@ -1596,43 +1634,43 @@
         <v>45</v>
       </c>
       <c r="D16" s="2">
-        <v>95.65217391</v>
+        <v>95.652173910000002</v>
       </c>
       <c r="E16" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F16" s="4">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="G16" s="2">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="H16" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="I16" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="J16" s="2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="K16" s="2">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="L16" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="M16" s="5">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="N16" s="6">
-        <f t="shared" si="1"/>
-        <v>40.95</v>
-      </c>
-    </row>
-    <row r="17">
+        <f t="shared" si="0"/>
+        <v>40.950000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>46</v>
@@ -1641,43 +1679,43 @@
         <v>47</v>
       </c>
       <c r="D17" s="2">
-        <v>95.65217391</v>
+        <v>95.652173910000002</v>
       </c>
       <c r="E17" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F17" s="4">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G17" s="2">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="H17" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I17" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="J17" s="2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="K17" s="2">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="L17" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="M17" s="5">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="N17" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>41.1</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>48</v>
@@ -1686,43 +1724,43 @@
         <v>49</v>
       </c>
       <c r="D18" s="2">
-        <v>91.30434783</v>
+        <v>91.304347829999998</v>
       </c>
       <c r="E18" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F18" s="4">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="G18" s="2">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="H18" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="I18" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="J18" s="2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>21</v>
       </c>
       <c r="L18" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="M18" s="5">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="N18" s="6">
-        <f t="shared" si="1"/>
-        <v>32.95</v>
-      </c>
-    </row>
-    <row r="19">
+        <f t="shared" si="0"/>
+        <v>32.950000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>50</v>
@@ -1731,43 +1769,43 @@
         <v>51</v>
       </c>
       <c r="D19" s="2">
-        <v>95.65217391</v>
+        <v>95.652173910000002</v>
       </c>
       <c r="E19" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F19" s="4">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="G19" s="2">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="H19" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="I19" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="J19" s="2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="K19" s="2">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="L19" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="M19" s="5">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="N19" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>52</v>
@@ -1776,41 +1814,41 @@
         <v>53</v>
       </c>
       <c r="D20" s="2">
-        <v>82.60869565</v>
+        <v>82.608695650000001</v>
       </c>
       <c r="E20" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G20" s="2">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="H20" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="I20" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="J20" s="2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="K20" s="2">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="L20" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="M20" s="5"/>
       <c r="N20" s="6">
-        <f t="shared" si="1"/>
-        <v>24.3</v>
-      </c>
-    </row>
-    <row r="21">
+        <f t="shared" si="0"/>
+        <v>24.299999999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>54</v>
@@ -1819,41 +1857,41 @@
         <v>55</v>
       </c>
       <c r="D21" s="2">
-        <v>95.65217391</v>
+        <v>95.652173910000002</v>
       </c>
       <c r="E21" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F21" s="4">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="G21" s="2">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="H21" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="I21" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="J21" s="2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="K21" s="2">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="L21" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="M21" s="5"/>
       <c r="N21" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>25.15</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>56</v>
@@ -1862,41 +1900,41 @@
         <v>57</v>
       </c>
       <c r="D22" s="2">
-        <v>95.65217391</v>
+        <v>95.652173910000002</v>
       </c>
       <c r="E22" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F22" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="G22" s="2">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="H22" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="I22" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="J22" s="2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="K22" s="2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="L22" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="M22" s="5"/>
       <c r="N22" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>25.85</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>58</v>
@@ -1908,10 +1946,10 @@
         <v>43.47826087</v>
       </c>
       <c r="E23" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F23" s="4">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>60</v>
@@ -1923,23 +1961,23 @@
         <v>18</v>
       </c>
       <c r="J23" s="2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="K23" s="2">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>18</v>
       </c>
       <c r="M23" s="5"/>
       <c r="N23" s="6">
-        <f t="shared" si="1"/>
-        <v>9.45</v>
-      </c>
-    </row>
-    <row r="24">
+        <f t="shared" si="0"/>
+        <v>9.4499999999999993</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>61</v>
@@ -1948,41 +1986,41 @@
         <v>62</v>
       </c>
       <c r="D24" s="2">
-        <v>91.30434783</v>
+        <v>91.304347829999998</v>
       </c>
       <c r="E24" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F24" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G24" s="2">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I24" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="J24" s="2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="K24" s="2">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="L24" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="M24" s="5"/>
       <c r="N24" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>16.75</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>63</v>
@@ -1991,41 +2029,41 @@
         <v>64</v>
       </c>
       <c r="D25" s="2">
-        <v>95.65217391</v>
+        <v>95.652173910000002</v>
       </c>
       <c r="E25" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F25" s="4">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="G25" s="2">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="H25" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="I25" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="J25" s="2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="K25" s="2">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="L25" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="M25" s="5"/>
       <c r="N25" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>21.75</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>65</v>
@@ -2034,41 +2072,41 @@
         <v>66</v>
       </c>
       <c r="D26" s="9">
-        <v>69.56521739</v>
+        <v>69.565217390000001</v>
       </c>
       <c r="E26" s="9">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F26" s="10" t="s">
         <v>18</v>
       </c>
       <c r="G26" s="9">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="H26" s="9">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="I26" s="9">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="J26" s="9">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="K26" s="9">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="L26" s="9">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="M26" s="9"/>
       <c r="N26" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>23.05</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>67</v>
@@ -2077,41 +2115,41 @@
         <v>68</v>
       </c>
       <c r="D27" s="2">
-        <v>78.26086957</v>
+        <v>78.260869569999997</v>
       </c>
       <c r="E27" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F27" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="G27" s="2">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="H27" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="I27" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="J27" s="2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="K27" s="2">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="L27" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="M27" s="5"/>
       <c r="N27" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>21.85</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>69</v>
@@ -2120,41 +2158,41 @@
         <v>70</v>
       </c>
       <c r="D28" s="2">
-        <v>78.26086957</v>
+        <v>78.260869569999997</v>
       </c>
       <c r="E28" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F28" s="4">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="G28" s="2">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="H28" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="I28" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="J28" s="2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="K28" s="2">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="L28" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="M28" s="5"/>
       <c r="N28" s="6">
-        <f t="shared" si="1"/>
-        <v>23.05</v>
-      </c>
-    </row>
-    <row r="29">
+        <f t="shared" si="0"/>
+        <v>23.049999999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>71</v>
@@ -2163,41 +2201,41 @@
         <v>72</v>
       </c>
       <c r="D29" s="2">
-        <v>73.91304348</v>
+        <v>73.913043479999999</v>
       </c>
       <c r="E29" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G29" s="2">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="H29" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="I29" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="J29" s="2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="K29" s="2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="L29" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="M29" s="5"/>
       <c r="N29" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>22.8</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>73</v>
@@ -2206,16 +2244,16 @@
         <v>74</v>
       </c>
       <c r="D30" s="2">
-        <v>82.60869565</v>
+        <v>82.608695650000001</v>
       </c>
       <c r="E30" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G30" s="2">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>18</v>
@@ -2224,23 +2262,23 @@
         <v>18</v>
       </c>
       <c r="J30" s="2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="K30" s="2">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="L30" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="M30" s="5"/>
       <c r="N30" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>21.75</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>75</v>
@@ -2249,41 +2287,41 @@
         <v>76</v>
       </c>
       <c r="D31" s="2">
-        <v>82.60869565</v>
+        <v>82.608695650000001</v>
       </c>
       <c r="E31" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F31" s="4">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="G31" s="2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="H31" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I31" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="J31" s="2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="K31" s="2">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="L31" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="M31" s="5"/>
       <c r="N31" s="6">
-        <f t="shared" si="1"/>
-        <v>22.7</v>
-      </c>
-    </row>
-    <row r="32">
+        <f t="shared" si="0"/>
+        <v>22.700000000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>77</v>
@@ -2292,10 +2330,10 @@
         <v>45</v>
       </c>
       <c r="D32" s="2">
-        <v>65.2173913</v>
+        <v>65.217391300000003</v>
       </c>
       <c r="E32" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>18</v>
@@ -2310,7 +2348,7 @@
         <v>18</v>
       </c>
       <c r="J32" s="2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="K32" s="2" t="s">
         <v>18</v>
@@ -2320,13 +2358,13 @@
       </c>
       <c r="M32" s="5"/>
       <c r="N32" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>78</v>
@@ -2335,41 +2373,41 @@
         <v>79</v>
       </c>
       <c r="D33" s="2">
-        <v>78.26086957</v>
+        <v>78.260869569999997</v>
       </c>
       <c r="E33" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F33" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="G33" s="2">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="H33" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="I33" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="J33" s="2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="K33" s="2">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="L33" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="M33" s="5"/>
       <c r="N33" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>80</v>
@@ -2378,16 +2416,16 @@
         <v>81</v>
       </c>
       <c r="D34" s="2">
-        <v>39.13043478</v>
+        <v>39.130434780000002</v>
       </c>
       <c r="E34" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F34" s="4">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="G34" s="2">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>18</v>
@@ -2396,23 +2434,23 @@
         <v>18</v>
       </c>
       <c r="J34" s="2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="K34" s="2">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="L34" s="2" t="s">
         <v>18</v>
       </c>
       <c r="M34" s="5"/>
       <c r="N34" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>15.8</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>82</v>
@@ -2421,41 +2459,41 @@
         <v>83</v>
       </c>
       <c r="D35" s="2">
-        <v>73.91304348</v>
+        <v>73.913043479999999</v>
       </c>
       <c r="E35" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F35" s="4">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H35" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="I35" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="J35" s="2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="K35" s="2">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="L35" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="M35" s="6"/>
       <c r="N35" s="6">
-        <f t="shared" si="1"/>
-        <v>19.15</v>
-      </c>
-    </row>
-    <row r="36">
+        <f t="shared" si="0"/>
+        <v>19.149999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>84</v>
@@ -2464,41 +2502,41 @@
         <v>85</v>
       </c>
       <c r="D36" s="2">
-        <v>95.65217391</v>
+        <v>95.652173910000002</v>
       </c>
       <c r="E36" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F36" s="4">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="G36" s="2">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="H36" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>18</v>
       </c>
       <c r="J36" s="2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="K36" s="2">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="L36" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="M36" s="6"/>
       <c r="N36" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>23.7</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>86</v>
@@ -2507,16 +2545,16 @@
         <v>87</v>
       </c>
       <c r="D37" s="2">
-        <v>47.82608696</v>
+        <v>47.826086959999998</v>
       </c>
       <c r="E37" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F37" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G37" s="2">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>18</v>
@@ -2525,30 +2563,30 @@
         <v>18</v>
       </c>
       <c r="J37" s="2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="K37" s="2">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="L37" s="2" t="s">
         <v>18</v>
       </c>
       <c r="M37" s="6"/>
       <c r="N37" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
       <c r="D38" s="2">
-        <v>81.0</v>
+        <v>81</v>
       </c>
       <c r="E38" s="6">
         <f>AVERAGE(E2:E37)</f>
-        <v>3.194444444</v>
+        <v>3.1944444444444446</v>
       </c>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
@@ -2567,7 +2605,7 @@
         <v>43.15</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
@@ -2588,7 +2626,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
@@ -2606,32 +2644,33 @@
       </c>
       <c r="N40" s="13">
         <f>AVERAGE(N4:N39)</f>
-        <v>26.75416667</v>
+        <v>26.754166666666663</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:P74"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="25.14"/>
-    <col customWidth="1" min="3" max="3" width="33.14"/>
-    <col customWidth="1" min="4" max="4" width="19.86"/>
-    <col customWidth="1" min="7" max="7" width="29.14"/>
-    <col customWidth="1" min="10" max="10" width="19.71"/>
+    <col min="2" max="2" width="25.140625" customWidth="1"/>
+    <col min="3" max="3" width="33.140625" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" customWidth="1"/>
+    <col min="7" max="7" width="29.140625" customWidth="1"/>
+    <col min="10" max="10" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2675,9 +2714,9 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>96</v>
@@ -2686,43 +2725,43 @@
         <v>97</v>
       </c>
       <c r="D2" s="2">
-        <v>78.26086957</v>
+        <v>78.260869569999997</v>
       </c>
       <c r="E2" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F2" s="14">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G2" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="H2" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="I2" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="J2" s="2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="K2" s="2">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="L2" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="M2" s="14">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="N2" s="6">
-        <f t="shared" ref="N2:N35" si="1">E2+(SUM(F2:J2)/100*(15))+(SUM(K2,L2)/40*10)+(M2/25*(20))</f>
+        <f t="shared" ref="N2:N35" si="0">E2+(SUM(F2:J2)/100*(15))+(SUM(K2,L2)/40*10)+(M2/25*(20))</f>
         <v>22.85</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>98</v>
@@ -2731,10 +2770,10 @@
         <v>99</v>
       </c>
       <c r="D3" s="2">
-        <v>30.43478261</v>
+        <v>30.434782609999999</v>
       </c>
       <c r="E3" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F3" s="14" t="s">
         <v>18</v>
@@ -2749,7 +2788,7 @@
         <v>18</v>
       </c>
       <c r="J3" s="2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>100</v>
@@ -2758,16 +2797,16 @@
         <v>18</v>
       </c>
       <c r="M3" s="14">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="N3" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.2</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>101</v>
@@ -2776,43 +2815,43 @@
         <v>102</v>
       </c>
       <c r="D4" s="2">
-        <v>78.26086957</v>
+        <v>78.260869569999997</v>
       </c>
       <c r="E4" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F4" s="14">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="G4" s="2">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="H4" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="I4" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="J4" s="2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="K4" s="2">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="L4" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="M4" s="14">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="N4" s="6">
-        <f t="shared" si="1"/>
-        <v>32.65</v>
-      </c>
-    </row>
-    <row r="5">
+        <f t="shared" si="0"/>
+        <v>32.650000000000006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>103</v>
@@ -2821,43 +2860,43 @@
         <v>104</v>
       </c>
       <c r="D5" s="2">
-        <v>86.95652174</v>
+        <v>86.956521739999999</v>
       </c>
       <c r="E5" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F5" s="14">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G5" s="2">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="H5" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>105</v>
       </c>
       <c r="J5" s="2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="K5" s="2">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="L5" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="M5" s="14">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="N5" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>28.35</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>106</v>
@@ -2866,43 +2905,43 @@
         <v>107</v>
       </c>
       <c r="D6" s="2">
-        <v>91.30434783</v>
+        <v>91.304347829999998</v>
       </c>
       <c r="E6" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F6" s="14">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G6" s="2">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="H6" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="I6" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="J6" s="2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="K6" s="2">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="L6" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="M6" s="14">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="N6" s="6">
-        <f t="shared" si="1"/>
-        <v>36.8</v>
-      </c>
-    </row>
-    <row r="7">
+        <f t="shared" si="0"/>
+        <v>36.799999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>108</v>
@@ -2911,43 +2950,43 @@
         <v>109</v>
       </c>
       <c r="D7" s="2">
-        <v>95.65217391</v>
+        <v>95.652173910000002</v>
       </c>
       <c r="E7" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F7" s="14">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G7" s="2">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="H7" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="I7" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="J7" s="2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="K7" s="2">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="L7" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="M7" s="14">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="N7" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>27.5</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>110</v>
@@ -2956,43 +2995,43 @@
         <v>111</v>
       </c>
       <c r="D8" s="2">
-        <v>65.2173913</v>
+        <v>65.217391300000003</v>
       </c>
       <c r="E8" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F8" s="14">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G8" s="2">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="H8" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="J8" s="2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="K8" s="2">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="L8" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="M8" s="14">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="N8" s="6">
-        <f t="shared" si="1"/>
-        <v>29.4</v>
-      </c>
-    </row>
-    <row r="9">
+        <f t="shared" si="0"/>
+        <v>29.400000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>112</v>
@@ -3001,43 +3040,43 @@
         <v>113</v>
       </c>
       <c r="D9" s="2">
-        <v>93.30434783</v>
+        <v>93.304347829999998</v>
       </c>
       <c r="E9" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F9" s="14">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G9" s="2">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="H9" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="I9" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="J9" s="2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="K9" s="2">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="L9" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="M9" s="14">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="N9" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>33.5</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>114</v>
@@ -3046,43 +3085,43 @@
         <v>115</v>
       </c>
       <c r="D10" s="2">
-        <v>91.30434783</v>
+        <v>91.304347829999998</v>
       </c>
       <c r="E10" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F10" s="14">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="G10" s="2">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="H10" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="I10" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="J10" s="2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="K10" s="2">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="L10" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="M10" s="14">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="N10" s="6">
-        <f t="shared" si="1"/>
-        <v>38.3</v>
-      </c>
-    </row>
-    <row r="11">
+        <f t="shared" si="0"/>
+        <v>38.300000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>116</v>
@@ -3091,43 +3130,43 @@
         <v>117</v>
       </c>
       <c r="D11" s="2">
-        <v>82.60869565</v>
+        <v>82.608695650000001</v>
       </c>
       <c r="E11" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F11" s="14">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="G11" s="2">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="H11" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="I11" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="J11" s="2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="K11" s="2">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="L11" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="M11" s="14">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="N11" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>41.4</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>118</v>
@@ -3136,43 +3175,43 @@
         <v>119</v>
       </c>
       <c r="D12" s="2">
-        <v>95.65217391</v>
+        <v>95.652173910000002</v>
       </c>
       <c r="E12" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F12" s="14">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="G12" s="2">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="H12" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="I12" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="J12" s="2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="K12" s="2">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="L12" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="M12" s="14">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="N12" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>35.15</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>120</v>
@@ -3181,43 +3220,43 @@
         <v>121</v>
       </c>
       <c r="D13" s="2">
-        <v>82.60869565</v>
+        <v>82.608695650000001</v>
       </c>
       <c r="E13" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F13" s="14">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G13" s="2">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="H13" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="I13" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="J13" s="2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="K13" s="2">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="L13" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="M13" s="14">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="N13" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>30.4</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>122</v>
@@ -3226,43 +3265,43 @@
         <v>123</v>
       </c>
       <c r="D14" s="2">
-        <v>73.91304348</v>
+        <v>73.913043479999999</v>
       </c>
       <c r="E14" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F14" s="14">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G14" s="2">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="H14" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="I14" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="J14" s="2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="K14" s="2">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="L14" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="M14" s="14">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="N14" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>31.75</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>124</v>
@@ -3271,43 +3310,43 @@
         <v>125</v>
       </c>
       <c r="D15" s="2">
-        <v>82.60869565</v>
+        <v>82.608695650000001</v>
       </c>
       <c r="E15" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F15" s="14">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G15" s="2">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I15" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="J15" s="2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="K15" s="2">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="L15" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="M15" s="14">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="N15" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>34.5</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>126</v>
@@ -3316,43 +3355,43 @@
         <v>127</v>
       </c>
       <c r="D16" s="2">
-        <v>78.26086957</v>
+        <v>78.260869569999997</v>
       </c>
       <c r="E16" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F16" s="14">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="G16" s="2">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="H16" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="I16" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="J16" s="2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="K16" s="2">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="L16" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="M16" s="14">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="N16" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>128</v>
@@ -3361,16 +3400,16 @@
         <v>129</v>
       </c>
       <c r="D17" s="2">
-        <v>82.60869565</v>
+        <v>82.608695650000001</v>
       </c>
       <c r="E17" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F17" s="14" t="s">
         <v>18</v>
       </c>
       <c r="G17" s="2">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>18</v>
@@ -3379,25 +3418,25 @@
         <v>18</v>
       </c>
       <c r="J17" s="2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="K17" s="2">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="L17" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="M17" s="14">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="N17" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>26.6</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>130</v>
@@ -3406,43 +3445,43 @@
         <v>131</v>
       </c>
       <c r="D18" s="2">
-        <v>91.30434783</v>
+        <v>91.304347829999998</v>
       </c>
       <c r="E18" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F18" s="14">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="G18" s="2">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="H18" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="I18" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="J18" s="2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="K18" s="2">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="L18" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="M18" s="14">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="N18" s="6">
-        <f t="shared" si="1"/>
-        <v>34.55</v>
-      </c>
-    </row>
-    <row r="19">
+        <f t="shared" si="0"/>
+        <v>34.549999999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>132</v>
@@ -3451,43 +3490,43 @@
         <v>133</v>
       </c>
       <c r="D19" s="2">
-        <v>73.91304348</v>
+        <v>73.913043479999999</v>
       </c>
       <c r="E19" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F19" s="14" t="s">
         <v>18</v>
       </c>
       <c r="G19" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H19" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I19" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="J19" s="2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="K19" s="2">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="L19" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="M19" s="14">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="N19" s="6">
-        <f t="shared" si="1"/>
-        <v>19.35</v>
-      </c>
-    </row>
-    <row r="20">
+        <f t="shared" si="0"/>
+        <v>19.349999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>134</v>
@@ -3496,43 +3535,43 @@
         <v>135</v>
       </c>
       <c r="D20" s="2">
-        <v>73.91304348</v>
+        <v>73.913043479999999</v>
       </c>
       <c r="E20" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F20" s="14">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="G20" s="2">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="H20" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="I20" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="J20" s="2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="K20" s="2">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="L20" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="M20" s="14">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="N20" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>24.05</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>136</v>
@@ -3541,43 +3580,43 @@
         <v>137</v>
       </c>
       <c r="D21" s="2">
-        <v>73.91304348</v>
+        <v>73.913043479999999</v>
       </c>
       <c r="E21" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F21" s="14" t="s">
         <v>18</v>
       </c>
       <c r="G21" s="2">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="H21" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="I21" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="J21" s="2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="K21" s="2">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="L21" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="M21" s="14">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="N21" s="6">
-        <f t="shared" si="1"/>
-        <v>27.1</v>
-      </c>
-    </row>
-    <row r="22">
+        <f t="shared" si="0"/>
+        <v>27.099999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>138</v>
@@ -3586,43 +3625,43 @@
         <v>139</v>
       </c>
       <c r="D22" s="2">
-        <v>95.65217391</v>
+        <v>95.652173910000002</v>
       </c>
       <c r="E22" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F22" s="14">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="G22" s="2">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="H22" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="I22" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="J22" s="2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="K22" s="2">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="L22" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="M22" s="14">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="N22" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>38.1</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>140</v>
@@ -3631,43 +3670,43 @@
         <v>141</v>
       </c>
       <c r="D23" s="2">
-        <v>91.30434783</v>
+        <v>91.304347829999998</v>
       </c>
       <c r="E23" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F23" s="14">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G23" s="2">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="H23" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="I23" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="J23" s="2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="K23" s="2">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="L23" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="M23" s="14">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="N23" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40.75</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>142</v>
@@ -3676,43 +3715,43 @@
         <v>143</v>
       </c>
       <c r="D24" s="2">
-        <v>95.65217391</v>
+        <v>95.652173910000002</v>
       </c>
       <c r="E24" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F24" s="14">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G24" s="2">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="H24" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="I24" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="J24" s="2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="K24" s="2">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="L24" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="M24" s="14">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="N24" s="6">
-        <f t="shared" si="1"/>
-        <v>37.8</v>
-      </c>
-    </row>
-    <row r="25">
+        <f t="shared" si="0"/>
+        <v>37.800000000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>144</v>
@@ -3721,43 +3760,43 @@
         <v>145</v>
       </c>
       <c r="D25" s="2">
-        <v>91.30434783</v>
+        <v>91.304347829999998</v>
       </c>
       <c r="E25" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F25" s="14">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="G25" s="2">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="H25" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="I25" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="J25" s="2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="K25" s="2">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="L25" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="M25" s="14">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="N25" s="6">
-        <f t="shared" si="1"/>
-        <v>38.55</v>
-      </c>
-    </row>
-    <row r="26">
+        <f t="shared" si="0"/>
+        <v>38.549999999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>146</v>
@@ -3766,43 +3805,43 @@
         <v>147</v>
       </c>
       <c r="D26" s="2">
-        <v>78.26086957</v>
+        <v>78.260869569999997</v>
       </c>
       <c r="E26" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F26" s="14">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="G26" s="2">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="H26" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="I26" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="J26" s="2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="K26" s="2">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="L26" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="M26" s="14">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="N26" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>33.85</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>148</v>
@@ -3811,25 +3850,25 @@
         <v>149</v>
       </c>
       <c r="D27" s="2">
-        <v>34.7826087</v>
+        <v>34.782608699999997</v>
       </c>
       <c r="E27" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F27" s="14" t="s">
         <v>18</v>
       </c>
       <c r="G27" s="2">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="H27" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="I27" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="J27" s="2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>100</v>
@@ -3838,16 +3877,16 @@
         <v>18</v>
       </c>
       <c r="M27" s="14">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="N27" s="6">
-        <f t="shared" si="1"/>
-        <v>17.9</v>
-      </c>
-    </row>
-    <row r="28">
+        <f t="shared" si="0"/>
+        <v>17.899999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>150</v>
@@ -3856,43 +3895,43 @@
         <v>151</v>
       </c>
       <c r="D28" s="2">
-        <v>86.95652174</v>
+        <v>86.956521739999999</v>
       </c>
       <c r="E28" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F28" s="14">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G28" s="2">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="H28" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="I28" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="J28" s="2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="K28" s="2">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="L28" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="M28" s="14">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="N28" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>33.15</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>152</v>
@@ -3901,43 +3940,43 @@
         <v>153</v>
       </c>
       <c r="D29" s="2">
-        <v>86.95652174</v>
+        <v>86.956521739999999</v>
       </c>
       <c r="E29" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F29" s="14">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="G29" s="2">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="H29" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="I29" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="J29" s="2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="K29" s="2">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="L29" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="M29" s="14">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="N29" s="6">
-        <f t="shared" si="1"/>
-        <v>34.55</v>
-      </c>
-    </row>
-    <row r="30">
+        <f t="shared" si="0"/>
+        <v>34.549999999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>154</v>
@@ -3946,43 +3985,43 @@
         <v>155</v>
       </c>
       <c r="D30" s="2">
-        <v>82.60869565</v>
+        <v>82.608695650000001</v>
       </c>
       <c r="E30" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F30" s="14" t="s">
         <v>18</v>
       </c>
       <c r="G30" s="2">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="H30" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="I30" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="J30" s="2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="K30" s="2">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="L30" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="M30" s="14">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="N30" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>34.75</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>156</v>
@@ -3991,43 +4030,43 @@
         <v>157</v>
       </c>
       <c r="D31" s="2">
-        <v>91.30434783</v>
+        <v>91.304347829999998</v>
       </c>
       <c r="E31" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F31" s="14">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="G31" s="2">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="H31" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="I31" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="J31" s="2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="K31" s="2">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="L31" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="M31" s="14">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="N31" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>35.5</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>158</v>
@@ -4036,43 +4075,43 @@
         <v>159</v>
       </c>
       <c r="D32" s="2">
-        <v>86.95652174</v>
+        <v>86.956521739999999</v>
       </c>
       <c r="E32" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F32" s="14">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G32" s="2">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="H32" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="I32" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="J32" s="2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="K32" s="2">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="L32" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="M32" s="14">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="N32" s="6">
-        <f t="shared" si="1"/>
-        <v>36.55</v>
-      </c>
-    </row>
-    <row r="33">
+        <f t="shared" si="0"/>
+        <v>36.549999999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>160</v>
@@ -4081,43 +4120,43 @@
         <v>161</v>
       </c>
       <c r="D33" s="2">
-        <v>69.56521739</v>
+        <v>69.565217390000001</v>
       </c>
       <c r="E33" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F33" s="14">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="G33" s="2">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="H33" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="I33" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="J33" s="2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="K33" s="2">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="L33" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M33" s="14">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="N33" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>29.45</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>162</v>
@@ -4129,40 +4168,40 @@
         <v>43.47826087</v>
       </c>
       <c r="E34" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F34" s="14">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G34" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H34" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I34" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J34" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K34" s="2" t="s">
         <v>100</v>
       </c>
       <c r="L34" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M34" s="14">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N34" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>164</v>
@@ -4171,41 +4210,41 @@
         <v>165</v>
       </c>
       <c r="D35" s="2">
-        <v>82.60869565</v>
+        <v>82.608695650000001</v>
       </c>
       <c r="E35" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F35" s="14">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="G35" s="2">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="H35" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="I35" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="J35" s="2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="K35" s="2">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="L35" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="M35" s="14">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="N35" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>31.65</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -4228,7 +4267,7 @@
         <v>41.4</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="14"/>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
@@ -4249,7 +4288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="14"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
@@ -4267,12 +4306,12 @@
       </c>
       <c r="N38" s="18">
         <f>AVERAGE(N2:N35)</f>
-        <v>30.49852941</v>
+        <v>30.4985294117647</v>
       </c>
       <c r="O38" s="19"/>
       <c r="P38" s="19"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="14"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
@@ -4290,7 +4329,7 @@
       <c r="O39" s="19"/>
       <c r="P39" s="19"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" s="20"/>
       <c r="B40" s="20"/>
       <c r="C40" s="20"/>
@@ -4308,7 +4347,7 @@
       <c r="O40" s="19"/>
       <c r="P40" s="19"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="20"/>
       <c r="B41" s="20"/>
       <c r="C41" s="20"/>
@@ -4326,7 +4365,7 @@
       <c r="O41" s="19"/>
       <c r="P41" s="19"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="20"/>
       <c r="B42" s="20"/>
       <c r="C42" s="20"/>
@@ -4344,7 +4383,7 @@
       <c r="O42" s="19"/>
       <c r="P42" s="19"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" s="20"/>
       <c r="B43" s="20"/>
       <c r="C43" s="20"/>
@@ -4362,7 +4401,7 @@
       <c r="O43" s="19"/>
       <c r="P43" s="19"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" s="20"/>
       <c r="B44" s="20"/>
       <c r="C44" s="20"/>
@@ -4380,7 +4419,7 @@
       <c r="O44" s="19"/>
       <c r="P44" s="19"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" s="20"/>
       <c r="B45" s="20"/>
       <c r="C45" s="20"/>
@@ -4398,7 +4437,7 @@
       <c r="O45" s="19"/>
       <c r="P45" s="19"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" s="20"/>
       <c r="B46" s="20"/>
       <c r="C46" s="20"/>
@@ -4416,7 +4455,7 @@
       <c r="O46" s="19"/>
       <c r="P46" s="19"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" s="20"/>
       <c r="B47" s="20"/>
       <c r="C47" s="20"/>
@@ -4434,7 +4473,7 @@
       <c r="O47" s="19"/>
       <c r="P47" s="19"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" s="20"/>
       <c r="B48" s="20"/>
       <c r="C48" s="20"/>
@@ -4452,7 +4491,7 @@
       <c r="O48" s="19"/>
       <c r="P48" s="19"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" s="20"/>
       <c r="B49" s="20"/>
       <c r="C49" s="20"/>
@@ -4470,7 +4509,7 @@
       <c r="O49" s="19"/>
       <c r="P49" s="19"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" s="20"/>
       <c r="B50" s="20"/>
       <c r="C50" s="20"/>
@@ -4488,7 +4527,7 @@
       <c r="O50" s="19"/>
       <c r="P50" s="19"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" s="20"/>
       <c r="B51" s="20"/>
       <c r="C51" s="20"/>
@@ -4506,7 +4545,7 @@
       <c r="O51" s="19"/>
       <c r="P51" s="19"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" s="20"/>
       <c r="B52" s="20"/>
       <c r="C52" s="20"/>
@@ -4524,7 +4563,7 @@
       <c r="O52" s="19"/>
       <c r="P52" s="19"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" s="20"/>
       <c r="B53" s="20"/>
       <c r="C53" s="20"/>
@@ -4542,7 +4581,7 @@
       <c r="O53" s="19"/>
       <c r="P53" s="19"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" s="20"/>
       <c r="B54" s="20"/>
       <c r="C54" s="20"/>
@@ -4560,7 +4599,7 @@
       <c r="O54" s="19"/>
       <c r="P54" s="19"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" s="20"/>
       <c r="B55" s="20"/>
       <c r="C55" s="20"/>
@@ -4578,7 +4617,7 @@
       <c r="O55" s="19"/>
       <c r="P55" s="19"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" s="20"/>
       <c r="B56" s="20"/>
       <c r="C56" s="20"/>
@@ -4596,7 +4635,7 @@
       <c r="O56" s="19"/>
       <c r="P56" s="19"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="20"/>
       <c r="B57" s="20"/>
       <c r="C57" s="20"/>
@@ -4614,7 +4653,7 @@
       <c r="O57" s="19"/>
       <c r="P57" s="19"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" s="20"/>
       <c r="B58" s="20"/>
       <c r="C58" s="20"/>
@@ -4632,7 +4671,7 @@
       <c r="O58" s="19"/>
       <c r="P58" s="19"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" s="20"/>
       <c r="B59" s="20"/>
       <c r="C59" s="20"/>
@@ -4650,7 +4689,7 @@
       <c r="O59" s="19"/>
       <c r="P59" s="19"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" s="20"/>
       <c r="B60" s="20"/>
       <c r="C60" s="20"/>
@@ -4668,7 +4707,7 @@
       <c r="O60" s="19"/>
       <c r="P60" s="19"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" s="20"/>
       <c r="B61" s="20"/>
       <c r="C61" s="20"/>
@@ -4686,7 +4725,7 @@
       <c r="O61" s="19"/>
       <c r="P61" s="19"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" s="20"/>
       <c r="B62" s="20"/>
       <c r="C62" s="20"/>
@@ -4704,7 +4743,7 @@
       <c r="O62" s="19"/>
       <c r="P62" s="19"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" s="20"/>
       <c r="B63" s="20"/>
       <c r="C63" s="20"/>
@@ -4722,7 +4761,7 @@
       <c r="O63" s="19"/>
       <c r="P63" s="19"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" s="20"/>
       <c r="B64" s="20"/>
       <c r="C64" s="20"/>
@@ -4740,7 +4779,7 @@
       <c r="O64" s="19"/>
       <c r="P64" s="19"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65" s="20"/>
       <c r="B65" s="20"/>
       <c r="C65" s="20"/>
@@ -4758,7 +4797,7 @@
       <c r="O65" s="19"/>
       <c r="P65" s="19"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" s="20"/>
       <c r="B66" s="20"/>
       <c r="C66" s="20"/>
@@ -4776,7 +4815,7 @@
       <c r="O66" s="19"/>
       <c r="P66" s="19"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67" s="20"/>
       <c r="B67" s="20"/>
       <c r="C67" s="20"/>
@@ -4794,7 +4833,7 @@
       <c r="O67" s="19"/>
       <c r="P67" s="19"/>
     </row>
-    <row r="68">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" s="20"/>
       <c r="B68" s="20"/>
       <c r="C68" s="20"/>
@@ -4812,7 +4851,7 @@
       <c r="O68" s="19"/>
       <c r="P68" s="19"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" s="20"/>
       <c r="B69" s="20"/>
       <c r="C69" s="20"/>
@@ -4830,7 +4869,7 @@
       <c r="O69" s="19"/>
       <c r="P69" s="19"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70" s="20"/>
       <c r="B70" s="20"/>
       <c r="C70" s="20"/>
@@ -4848,7 +4887,7 @@
       <c r="O70" s="19"/>
       <c r="P70" s="19"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D71" s="20"/>
       <c r="E71" s="20"/>
       <c r="F71" s="20"/>
@@ -4863,7 +4902,7 @@
       <c r="O71" s="19"/>
       <c r="P71" s="19"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D72" s="20"/>
       <c r="E72" s="20"/>
       <c r="F72" s="20"/>
@@ -4878,7 +4917,7 @@
       <c r="O72" s="19"/>
       <c r="P72" s="19"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D73" s="20"/>
       <c r="E73" s="20"/>
       <c r="F73" s="20"/>
@@ -4893,7 +4932,7 @@
       <c r="O73" s="19"/>
       <c r="P73" s="19"/>
     </row>
-    <row r="74">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D74" s="20"/>
       <c r="E74" s="20"/>
       <c r="F74" s="20"/>
@@ -4909,20 +4948,21 @@
       <c r="P74" s="23"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>